--- a/results/I3_N5_M3_T30_C200_DepLowerLeft_s3_P3_res.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepLowerLeft_s3_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>541.9484650450365</v>
+        <v>1083.59912398144</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>7.40998665641843e-05</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.45846504503518</v>
+        <v>23.65265368177027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.712041619408023</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.658511919077431</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>124.8600000000013</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>388.6299999999999</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -758,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -769,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -780,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -813,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -824,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>27.53018219295432</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.642777057637527</v>
+        <v>24.4246226620485</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.84866676379884</v>
+        <v>9.151333236201161</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.33301651610693</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>20.33301651610693</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22.46981780704569</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1027,104 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.71999999999964</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43999999999964</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1248,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37499999999963</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.17999999999964</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18499999999963</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>60.3</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>68.65000000000001</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1303,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>64.71999999999979</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>67.17999999999978</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>68.77999999999977</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>206.66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>208.08</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>210.74</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>217.88</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>219.0700000000006</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>161.0600000000001</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>169.3550000000008</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>168.3450000000008</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>179.7050000000008</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>177.8050000000008</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>99.37000000000052</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>106.6900000000005</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>102.0550000000005</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>115.0050000000005</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>116.2300000000005</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>65.71999999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>59.43999999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>69.37499999999963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>64.17999999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>63.18499999999963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1589,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>206.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1622,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>208.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>210.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>217.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>219.0700000000006</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1779,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1790,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -1659,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>8.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>10.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>17.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1856,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>19.07000000000065</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +1991,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>22.695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +2002,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1860,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1871,7 +2024,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -1882,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -1904,7 +2057,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1915,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +2090,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +2112,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1970,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +2145,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2167,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2055,7 +2208,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2066,7 +2219,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2077,7 +2230,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2088,7 +2241,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2099,12 +2252,34 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
         <v>1</v>
       </c>
     </row>
